--- a/Team-Data/2011-12/3-13-2011-12.xlsx
+++ b/Team-Data/2011-12/3-13-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.571</v>
+        <v>0.585</v>
       </c>
       <c r="H2" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I2" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J2" t="n">
-        <v>81.2</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.441</v>
       </c>
       <c r="L2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.375</v>
       </c>
       <c r="O2" t="n">
         <v>14.9</v>
@@ -705,22 +772,22 @@
         <v>20.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.722</v>
+        <v>0.718</v>
       </c>
       <c r="R2" t="n">
         <v>10.4</v>
       </c>
       <c r="S2" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T2" t="n">
         <v>41.5</v>
       </c>
       <c r="U2" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V2" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
         <v>8.4</v>
@@ -729,7 +796,7 @@
         <v>4.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z2" t="n">
         <v>17.9</v>
@@ -738,40 +805,40 @@
         <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>94</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN2" t="n">
         <v>6</v>
@@ -780,46 +847,46 @@
         <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>1.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -959,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -989,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1150,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1174,10 +1241,10 @@
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
         <v>18</v>
@@ -1335,13 +1402,13 @@
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV5" t="n">
         <v>4</v>
@@ -1359,10 +1426,10 @@
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="J6" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.701</v>
+        <v>0.698</v>
       </c>
       <c r="R6" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T6" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U6" t="n">
         <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W6" t="n">
         <v>7.7</v>
@@ -1457,22 +1524,22 @@
         <v>4.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1484,31 +1551,31 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
         <v>9</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1517,16 +1584,16 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT6" t="n">
         <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
@@ -1544,10 +1611,10 @@
         <v>5</v>
       </c>
       <c r="BB6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.545</v>
+        <v>0.535</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="J7" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L7" t="n">
         <v>7.3</v>
@@ -1606,25 +1673,25 @@
         <v>22.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.328</v>
+        <v>0.329</v>
       </c>
       <c r="O7" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P7" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R7" t="n">
         <v>10.7</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="T7" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U7" t="n">
         <v>21.4</v>
@@ -1642,64 +1709,64 @@
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="AA7" t="n">
         <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.3</v>
+        <v>94</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
         <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM7" t="n">
         <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>10</v>
@@ -1717,19 +1784,19 @@
         <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
       </c>
       <c r="BC7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
         <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.548</v>
       </c>
       <c r="H8" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M8" t="n">
         <v>20.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O8" t="n">
         <v>20.8</v>
@@ -1797,49 +1864,49 @@
         <v>28.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.737</v>
+        <v>0.735</v>
       </c>
       <c r="R8" t="n">
         <v>11.1</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T8" t="n">
         <v>43.6</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V8" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z8" t="n">
         <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.1</v>
+        <v>103.8</v>
       </c>
       <c r="AC8" t="n">
         <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
@@ -1866,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1884,10 +1951,10 @@
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-6</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>27</v>
@@ -2048,13 +2115,13 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ9" t="n">
         <v>10</v>
@@ -2075,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2084,10 +2151,10 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -2122,88 +2189,88 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
         <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>0.462</v>
+        <v>0.447</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="J10" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L10" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.392</v>
+        <v>0.388</v>
       </c>
       <c r="O10" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="P10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R10" t="n">
         <v>10.4</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U10" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V10" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="W10" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>5.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA10" t="n">
         <v>17.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1</v>
+        <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
         <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>16</v>
@@ -2212,10 +2279,10 @@
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
         <v>14</v>
@@ -2227,13 +2294,13 @@
         <v>4</v>
       </c>
       <c r="AM10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN10" t="n">
         <v>3</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP10" t="n">
         <v>25</v>
@@ -2242,10 +2309,10 @@
         <v>14</v>
       </c>
       <c r="AR10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT10" t="n">
         <v>26</v>
@@ -2254,10 +2321,10 @@
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX10" t="n">
         <v>8</v>
@@ -2269,13 +2336,13 @@
         <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.535</v>
+        <v>0.524</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J11" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K11" t="n">
         <v>0.451</v>
@@ -2331,34 +2398,34 @@
         <v>7.1</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O11" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="R11" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S11" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T11" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U11" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V11" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
@@ -2370,22 +2437,22 @@
         <v>4.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC11" t="n">
         <v>-0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -2394,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2406,16 +2473,16 @@
         <v>11</v>
       </c>
       <c r="AL11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
         <v>14</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP11" t="n">
         <v>29</v>
@@ -2430,7 +2497,7 @@
         <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU11" t="n">
         <v>17</v>
@@ -2442,19 +2509,19 @@
         <v>20</v>
       </c>
       <c r="AX11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -2486,109 +2553,109 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>16</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="J12" t="n">
         <v>81</v>
       </c>
       <c r="K12" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M12" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="N12" t="n">
         <v>0.359</v>
       </c>
       <c r="O12" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="P12" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.771</v>
+        <v>0.775</v>
       </c>
       <c r="R12" t="n">
         <v>12.5</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="V12" t="n">
         <v>14.4</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
         <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM12" t="n">
         <v>22</v>
@@ -2597,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>4</v>
@@ -2606,22 +2673,22 @@
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV12" t="n">
         <v>10</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2639,7 +2706,7 @@
         <v>16</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -2746,22 +2813,22 @@
         <v>1.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
@@ -2782,7 +2849,7 @@
         <v>15</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2806,13 +2873,13 @@
         <v>15</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2821,7 +2888,7 @@
         <v>8</v>
       </c>
       <c r="BC13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.619</v>
+        <v>0.61</v>
       </c>
       <c r="H14" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J14" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L14" t="n">
         <v>5.2</v>
@@ -2883,22 +2950,22 @@
         <v>0.306</v>
       </c>
       <c r="O14" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P14" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R14" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S14" t="n">
-        <v>34.3</v>
+        <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U14" t="n">
         <v>21.3</v>
@@ -2913,22 +2980,22 @@
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AB14" t="n">
-        <v>94.8</v>
+        <v>94.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
         <v>16</v>
@@ -2961,10 +3028,10 @@
         <v>29</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ14" t="n">
         <v>20</v>
@@ -2979,28 +3046,28 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA14" t="n">
         <v>13</v>
       </c>
       <c r="BB14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -3032,106 +3099,106 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
-        <v>48.4</v>
+        <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="J15" t="n">
-        <v>82.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M15" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.322</v>
+        <v>0.33</v>
       </c>
       <c r="O15" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="P15" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R15" t="n">
         <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T15" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V15" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
         <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>94.7</v>
+        <v>94.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3140,49 +3207,49 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
         <v>13</v>
       </c>
       <c r="AR15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS15" t="n">
         <v>23</v>
       </c>
       <c r="AT15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>22</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC15" t="n">
         <v>11</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -3214,55 +3281,55 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
         <v>31</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>0.756</v>
+        <v>0.775</v>
       </c>
       <c r="H16" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I16" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J16" t="n">
-        <v>79.5</v>
+        <v>79.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.484</v>
+        <v>0.485</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M16" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>0.392</v>
+        <v>0.394</v>
       </c>
       <c r="O16" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="P16" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.779</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T16" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U16" t="n">
         <v>21</v>
@@ -3271,7 +3338,7 @@
         <v>15.2</v>
       </c>
       <c r="W16" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X16" t="n">
         <v>5.3</v>
@@ -3280,25 +3347,25 @@
         <v>4.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="n">
         <v>3</v>
@@ -3319,7 +3386,7 @@
         <v>19</v>
       </c>
       <c r="AM16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN16" t="n">
         <v>2</v>
@@ -3328,16 +3395,16 @@
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT16" t="n">
         <v>13</v>
@@ -3346,22 +3413,22 @@
         <v>14</v>
       </c>
       <c r="AV16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW16" t="n">
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>21</v>
@@ -3495,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
@@ -3531,10 +3598,10 @@
         <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
         <v>16</v>
@@ -3671,25 +3738,25 @@
         <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
         <v>11</v>
       </c>
       <c r="AM18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN18" t="n">
         <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP18" t="n">
         <v>3</v>
@@ -3698,7 +3765,7 @@
         <v>8</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>10</v>
@@ -3710,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>21</v>
@@ -3728,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
@@ -3847,7 +3914,7 @@
         <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
@@ -3871,16 +3938,16 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ19" t="n">
         <v>7</v>
       </c>
       <c r="AR19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3892,7 +3959,7 @@
         <v>24</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>-5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
         <v>25</v>
@@ -4041,7 +4108,7 @@
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -4050,7 +4117,7 @@
         <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO20" t="n">
         <v>28</v>
@@ -4065,16 +4132,16 @@
         <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU20" t="n">
         <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>0.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4223,7 +4290,7 @@
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>12</v>
@@ -4238,7 +4305,7 @@
         <v>6</v>
       </c>
       <c r="AP21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ21" t="n">
         <v>17</v>
@@ -4250,10 +4317,10 @@
         <v>17</v>
       </c>
       <c r="AT21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
@@ -4265,7 +4332,7 @@
         <v>25</v>
       </c>
       <c r="AY21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" t="n">
         <v>32</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>0.762</v>
+        <v>0.78</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4324,79 +4391,79 @@
         <v>36.9</v>
       </c>
       <c r="J22" t="n">
-        <v>78.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.473</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N22" t="n">
         <v>0.343</v>
       </c>
       <c r="O22" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P22" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q22" t="n">
         <v>0.795</v>
       </c>
       <c r="R22" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S22" t="n">
         <v>32.9</v>
       </c>
       <c r="T22" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U22" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="V22" t="n">
         <v>16.7</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
@@ -4411,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN22" t="n">
         <v>14</v>
@@ -4426,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4450,7 +4517,7 @@
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" t="n">
         <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>0.651</v>
+        <v>0.643</v>
       </c>
       <c r="H23" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="J23" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L23" t="n">
         <v>10.3</v>
       </c>
       <c r="M23" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="N23" t="n">
         <v>0.388</v>
       </c>
       <c r="O23" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P23" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.649</v>
+        <v>0.652</v>
       </c>
       <c r="R23" t="n">
         <v>11.3</v>
@@ -4539,34 +4606,34 @@
         <v>43.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.5</v>
+        <v>94.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4599,10 +4666,10 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4617,10 +4684,10 @@
         <v>8</v>
       </c>
       <c r="AU23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
@@ -4635,7 +4702,7 @@
         <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
         <v>8</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
@@ -4775,7 +4842,7 @@
         <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN24" t="n">
         <v>7</v>
@@ -4808,7 +4875,7 @@
         <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
         <v>19</v>
@@ -4945,10 +5012,10 @@
         <v>29</v>
       </c>
       <c r="AI25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>11</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>13</v>
       </c>
       <c r="AK25" t="n">
         <v>10</v>
@@ -4972,7 +5039,7 @@
         <v>11</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
         <v>11</v>
@@ -5005,7 +5072,7 @@
         <v>15</v>
       </c>
       <c r="BC25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -5034,109 +5101,109 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>0.476</v>
+        <v>0.488</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>37.1</v>
       </c>
       <c r="J26" t="n">
-        <v>82</v>
+        <v>82.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M26" t="n">
         <v>19.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="O26" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="Q26" t="n">
         <v>0.788</v>
       </c>
       <c r="R26" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
         <v>30.8</v>
       </c>
       <c r="T26" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
       <c r="V26" t="n">
         <v>14.2</v>
       </c>
       <c r="W26" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL26" t="n">
         <v>15</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>16</v>
       </c>
       <c r="AM26" t="n">
         <v>13</v>
@@ -5145,10 +5212,10 @@
         <v>19</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>4</v>
@@ -5160,31 +5227,31 @@
         <v>15</v>
       </c>
       <c r="AT26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
         <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
         <v>9</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" t="n">
         <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J27" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.419</v>
@@ -5246,70 +5313,70 @@
         <v>20.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.322</v>
+        <v>0.321</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
         <v>23.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R27" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="S27" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T27" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U27" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="V27" t="n">
         <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y27" t="n">
         <v>6.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA27" t="n">
         <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.1</v>
+        <v>-6.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5324,13 +5391,13 @@
         <v>9</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP27" t="n">
         <v>11</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>19</v>
@@ -5345,13 +5412,13 @@
         <v>9</v>
       </c>
       <c r="AU27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
@@ -5360,7 +5427,7 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF28" t="n">
         <v>4</v>
@@ -5488,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>4</v>
@@ -5503,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5515,7 +5582,7 @@
         <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5524,7 +5591,7 @@
         <v>9</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -5580,37 +5647,37 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>0.333</v>
+        <v>0.317</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J29" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L29" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.334</v>
+        <v>0.332</v>
       </c>
       <c r="O29" t="n">
         <v>16.2</v>
@@ -5619,58 +5686,58 @@
         <v>21.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.761</v>
+        <v>0.764</v>
       </c>
       <c r="R29" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S29" t="n">
         <v>31.3</v>
       </c>
       <c r="T29" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U29" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V29" t="n">
         <v>15.1</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>90.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.7</v>
+        <v>-4</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>26</v>
@@ -5679,10 +5746,10 @@
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
         <v>19</v>
@@ -5700,19 +5767,19 @@
         <v>12</v>
       </c>
       <c r="AR29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT29" t="n">
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW29" t="n">
         <v>25</v>
@@ -5721,19 +5788,19 @@
         <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>17</v>
@@ -5852,10 +5919,10 @@
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ30" t="n">
         <v>9</v>
@@ -5879,19 +5946,19 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
       </c>
       <c r="AU30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
@@ -5944,85 +6011,85 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K31" t="n">
         <v>0.433</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M31" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.319</v>
+        <v>0.322</v>
       </c>
       <c r="O31" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="P31" t="n">
-        <v>22.5</v>
+        <v>22.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="R31" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S31" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U31" t="n">
         <v>18.4</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X31" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="AC31" t="n">
         <v>-8.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -6052,13 +6119,13 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP31" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AQ31" t="n">
         <v>27</v>
@@ -6076,10 +6143,10 @@
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6088,13 +6155,13 @@
         <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-13-2011-12</t>
+          <t>2012-03-13</t>
         </is>
       </c>
     </row>
